--- a/DAS5/lookup_tables/instrumentsLookup_DAS5_4.xlsx
+++ b/DAS5/lookup_tables/instrumentsLookup_DAS5_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajesh\Documents\Personal\DAS\DAS5\lookup_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4A9BB8-CD71-4D3D-9B7F-2629572362EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669EFFE2-D129-4566-802B-6E75446C6EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BF3DC3D9-DF6B-4649-A156-5D2AEA710009}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Symbol</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>ZOMATO</t>
+  </si>
+  <si>
+    <t>PATANJALI-BE</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34CC104-E354-45C8-84DE-EDF9549205FB}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +532,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
